--- a/www/ig/fhir/annuaire/StructureDefinition-as-ext-practitioner-nationality.xlsx
+++ b/www/ig/fhir/annuaire/StructureDefinition-as-ext-practitioner-nationality.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="136">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0-ballot</t>
+    <t>1.0.0-ballot-2</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-02T17:20:16+02:00</t>
+    <t>2023-07-18T12:08:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -319,6 +319,9 @@
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
+    <t>N/A</t>
+  </si>
+  <si>
     <t>Extension.extension:code</t>
   </si>
   <si>
@@ -368,9 +371,6 @@
     <t>Extension.url</t>
   </si>
   <si>
-    <t>N/A</t>
-  </si>
-  <si>
     <t>Extension.extension:code.value[x]</t>
   </si>
   <si>
@@ -387,11 +387,13 @@
     <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
   </si>
   <si>
-    <t xml:space="preserve">type:$this}
-</t>
-  </si>
-  <si>
-    <t>closed</t>
+    <t>required</t>
+  </si>
+  <si>
+    <t>Liste des pays (codes INSEE)</t>
+  </si>
+  <si>
+    <t>https://mos.esante.gouv.fr/NOS/JDV_J74-Pays-RASS/FHIR/JDV-J74-Pays-RASS</t>
   </si>
   <si>
     <t>Extension.value[x]</t>
@@ -399,21 +401,6 @@
   <si>
     <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
-  </si>
-  <si>
-    <t>Extension.extension:code.value[x]:valueCodeableConcept</t>
-  </si>
-  <si>
-    <t>valueCodeableConcept</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>Liste des pays (codes INSEE)</t>
-  </si>
-  <si>
-    <t>https://mos.esante.gouv.fr/NOS/JDV_J74-Pays-RASS/FHIR/JDV-J74-Pays-RASS</t>
   </si>
   <si>
     <t>Extension.extension:period</t>
@@ -750,7 +737,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK17"/>
+  <dimension ref="A1:AK16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -759,42 +746,42 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="52.25390625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="28.33203125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="21.3125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="12.203125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.1484375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="35.60546875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="29.1484375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="12.64453125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="14.21484375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.6640625" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.04296875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.77734375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.13671875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="25.90625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="71.796875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="40.0859375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="15.703125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="13.125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="17.4453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="27.48046875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="70.703125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="18.1875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="22.6796875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="24.98046875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1212,24 +1199,24 @@
         <v>76</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>87</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B5" t="s" s="2">
         <v>88</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D5" t="s" s="2">
         <v>74</v>
@@ -1254,13 +1241,13 @@
         <v>90</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -1319,7 +1306,7 @@
         <v>76</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AJ5" t="s" s="2">
         <v>98</v>
@@ -1330,10 +1317,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -1433,10 +1420,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
@@ -1465,7 +1452,7 @@
         <v>28</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
@@ -1525,7 +1512,7 @@
         <v>76</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AJ7" t="s" s="2">
         <v>98</v>
@@ -1536,10 +1523,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -1562,16 +1549,16 @@
         <v>74</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -1579,7 +1566,7 @@
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="S8" t="s" s="2">
         <v>74</v>
@@ -1621,7 +1608,7 @@
         <v>74</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>82</v>
@@ -1636,7 +1623,7 @@
         <v>74</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>115</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9">
@@ -1700,29 +1687,31 @@
         <v>74</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>74</v>
+        <v>121</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>74</v>
+        <v>122</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>74</v>
+        <v>123</v>
       </c>
       <c r="AA9" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="AC9" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="AC9" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="AD9" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>122</v>
+        <v>74</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>75</v>
@@ -1731,24 +1720,24 @@
         <v>82</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>115</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>117</v>
+        <v>88</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>74</v>
@@ -1770,15 +1759,17 @@
         <v>74</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>118</v>
+        <v>90</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="N10" s="2"/>
+        <v>103</v>
+      </c>
+      <c r="N10" t="s" s="2">
+        <v>129</v>
+      </c>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
         <v>74</v>
@@ -1803,13 +1794,13 @@
         <v>74</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>127</v>
+        <v>74</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>128</v>
+        <v>74</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>129</v>
+        <v>74</v>
       </c>
       <c r="AA10" t="s" s="2">
         <v>74</v>
@@ -1827,22 +1818,22 @@
         <v>74</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>123</v>
+        <v>97</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>124</v>
+        <v>98</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>115</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11">
@@ -1850,11 +1841,9 @@
         <v>130</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="C11" t="s" s="2">
-        <v>131</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
         <v>74</v>
       </c>
@@ -1875,17 +1864,15 @@
         <v>74</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>132</v>
+        <v>84</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="N11" t="s" s="2">
-        <v>133</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="N11" s="2"/>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
         <v>74</v>
@@ -1934,30 +1921,30 @@
         <v>74</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AI11" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>74</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -1968,7 +1955,7 @@
         <v>75</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>74</v>
@@ -1980,13 +1967,13 @@
         <v>74</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>84</v>
+        <v>28</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -2025,42 +2012,42 @@
         <v>74</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AD12" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>87</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2068,10 +2055,10 @@
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>74</v>
@@ -2083,22 +2070,24 @@
         <v>74</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>90</v>
+        <v>111</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>28</v>
+        <v>112</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="N13" s="2"/>
+        <v>113</v>
+      </c>
+      <c r="N13" t="s" s="2">
+        <v>114</v>
+      </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
         <v>74</v>
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>74</v>
+        <v>127</v>
       </c>
       <c r="S13" t="s" s="2">
         <v>74</v>
@@ -2128,42 +2117,42 @@
         <v>74</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="AD13" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>74</v>
+        <v>99</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2171,7 +2160,7 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>82</v>
@@ -2186,24 +2175,22 @@
         <v>74</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>110</v>
+        <v>134</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>113</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
         <v>74</v>
       </c>
       <c r="Q14" s="2"/>
       <c r="R14" t="s" s="2">
-        <v>131</v>
+        <v>74</v>
       </c>
       <c r="S14" t="s" s="2">
         <v>74</v>
@@ -2245,30 +2232,30 @@
         <v>74</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>74</v>
+        <v>125</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>115</v>
+        <v>99</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>137</v>
+        <v>115</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -2276,7 +2263,7 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>82</v>
@@ -2291,22 +2278,24 @@
         <v>74</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>138</v>
+        <v>111</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="N15" s="2"/>
+        <v>113</v>
+      </c>
+      <c r="N15" t="s" s="2">
+        <v>114</v>
+      </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
         <v>74</v>
       </c>
       <c r="Q15" s="2"/>
       <c r="R15" t="s" s="2">
-        <v>74</v>
+        <v>3</v>
       </c>
       <c r="S15" t="s" s="2">
         <v>74</v>
@@ -2348,10 +2337,10 @@
         <v>74</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>82</v>
@@ -2360,18 +2349,18 @@
         <v>74</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>124</v>
+        <v>74</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>115</v>
+        <v>99</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -2379,10 +2368,10 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>74</v>
@@ -2394,24 +2383,22 @@
         <v>74</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>110</v>
+        <v>135</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>113</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="N16" s="2"/>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
         <v>74</v>
       </c>
       <c r="Q16" s="2"/>
       <c r="R16" t="s" s="2">
-        <v>3</v>
+        <v>74</v>
       </c>
       <c r="S16" t="s" s="2">
         <v>74</v>
@@ -2453,125 +2440,22 @@
         <v>74</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>74</v>
+        <v>125</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="B17" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="C17" s="2"/>
-      <c r="D17" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="E17" s="2"/>
-      <c r="F17" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G17" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H17" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I17" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J17" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="K17" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="L17" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
-      <c r="P17" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Q17" s="2"/>
-      <c r="R17" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S17" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T17" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U17" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V17" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W17" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X17" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y17" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z17" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA17" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB17" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC17" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD17" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE17" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF17" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="AG17" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH17" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI17" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ17" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="AK17" t="s" s="2">
-        <v>115</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
